--- a/lib/files/merchant_request_format.xlsx
+++ b/lib/files/merchant_request_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP_1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203388FF-D4F5-43ED-AA3D-C6BFD8BB9B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA092FA-6C0B-4890-85C5-3ECECB55E8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>user_id</t>
   </si>
@@ -43,30 +43,6 @@
   </si>
   <si>
     <t>amount</t>
-  </si>
-  <si>
-    <t>test-1</t>
-  </si>
-  <si>
-    <t>test-2</t>
-  </si>
-  <si>
-    <t>test-3</t>
-  </si>
-  <si>
-    <t>Yogendra</t>
-  </si>
-  <si>
-    <t>AXIS437</t>
-  </si>
-  <si>
-    <t>SBIN457</t>
-  </si>
-  <si>
-    <t>BRANCH54</t>
-  </si>
-  <si>
-    <t>64858dcbc5ddf5e8799406d3</t>
   </si>
 </sst>
 </file>
@@ -408,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,75 +423,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5869458995</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>58573998779</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5487947894</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>56786748989</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5689989443</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>54789698798</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>900</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
